--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t xml:space="preserve">こんにちは。</t>
   </si>
@@ -148,13 +148,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -168,7 +168,24 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
